--- a/kaiju/inulinase/tax_summarized/metabolism/phylum.sum.xlsx
+++ b/kaiju/inulinase/tax_summarized/metabolism/phylum.sum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chian\OneDrive\Documents\GitHub\Carb_CRDS\kaiju\inulinase\tax_summarized\metabolism\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Carb_CRDS/kaiju/inulinase/tax_summarized/metabolism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{59C2429D-9D27-4C35-9EE9-DCCC919F5C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{59C2429D-9D27-4C35-9EE9-DCCC919F5C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{069F1526-265B-4C3E-90CE-ED8D99C06A3F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phylum.sum" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -932,24 +932,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="M14" sqref="M14:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -972,7 +973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -995,7 +996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,7 +1019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,7 +1042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1064,7 +1065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1084,7 +1085,7 @@
         <v>7.7239789999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1107,7 +1108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
